--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H2">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I2">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J2">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>0.174319184217</v>
+        <v>0.3559703637279999</v>
       </c>
       <c r="R2">
-        <v>1.568872657953</v>
+        <v>3.203733273551999</v>
       </c>
       <c r="S2">
-        <v>0.002932338286904144</v>
+        <v>0.007310408984228491</v>
       </c>
       <c r="T2">
-        <v>0.002932338286904143</v>
+        <v>0.00731040898422849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H3">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I3">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J3">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>1.539374676018</v>
+        <v>3.070742992714666</v>
       </c>
       <c r="R3">
-        <v>13.854372084162</v>
+        <v>27.636686934432</v>
       </c>
       <c r="S3">
-        <v>0.02589483951897723</v>
+        <v>0.06306251713513709</v>
       </c>
       <c r="T3">
-        <v>0.02589483951897723</v>
+        <v>0.06306251713513709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H4">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I4">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J4">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>0.310176687423</v>
+        <v>1.086567647952</v>
       </c>
       <c r="R4">
-        <v>2.791590186807</v>
+        <v>9.779108831568001</v>
       </c>
       <c r="S4">
-        <v>0.005217687200184025</v>
+        <v>0.02231436856813684</v>
       </c>
       <c r="T4">
-        <v>0.005217687200184023</v>
+        <v>0.02231436856813684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H5">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I5">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J5">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>1.257501013074</v>
+        <v>1.591115129056</v>
       </c>
       <c r="R5">
-        <v>11.317509117666</v>
+        <v>14.320036161504</v>
       </c>
       <c r="S5">
-        <v>0.02115325621227886</v>
+        <v>0.0326760413776489</v>
       </c>
       <c r="T5">
-        <v>0.02115325621227886</v>
+        <v>0.0326760413776489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H6">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I6">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J6">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>0.103151699814</v>
+        <v>0.1294657093493333</v>
       </c>
       <c r="R6">
-        <v>0.928365298326</v>
+        <v>1.165191384144</v>
       </c>
       <c r="S6">
-        <v>0.001735182963840059</v>
+        <v>0.002658781126790851</v>
       </c>
       <c r="T6">
-        <v>0.001735182963840058</v>
+        <v>0.002658781126790851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H7">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I7">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J7">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>0.114530700744</v>
+        <v>0.4588456552479999</v>
       </c>
       <c r="R7">
-        <v>1.030776306696</v>
+        <v>4.129610897231999</v>
       </c>
       <c r="S7">
-        <v>0.001926596664194577</v>
+        <v>0.00942311423167316</v>
       </c>
       <c r="T7">
-        <v>0.001926596664194576</v>
+        <v>0.00942311423167316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I8">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J8">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>0.4508813358195555</v>
+        <v>0.4615638464826667</v>
       </c>
       <c r="R8">
-        <v>4.057932022376</v>
+        <v>4.154074618344</v>
       </c>
       <c r="S8">
-        <v>0.007584573148462622</v>
+        <v>0.009478936546246356</v>
       </c>
       <c r="T8">
-        <v>0.007584573148462621</v>
+        <v>0.009478936546246354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I9">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J9">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>3.981634685633778</v>
@@ -1013,10 +1013,10 @@
         <v>35.834712170704</v>
       </c>
       <c r="S9">
-        <v>0.06697771037417952</v>
+        <v>0.08176910480113496</v>
       </c>
       <c r="T9">
-        <v>0.06697771037417952</v>
+        <v>0.08176910480113495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I10">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J10">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>0.8022804821715557</v>
+        <v>1.408882295144</v>
       </c>
       <c r="R10">
-        <v>7.220524339544001</v>
+        <v>12.679940656296</v>
       </c>
       <c r="S10">
-        <v>0.01349569059352071</v>
+        <v>0.02893360469752786</v>
       </c>
       <c r="T10">
-        <v>0.0134956905935207</v>
+        <v>0.02893360469752785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I11">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J11">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>3.252560750074667</v>
+        <v>2.063096521498667</v>
       </c>
       <c r="R11">
-        <v>29.273046750672</v>
+        <v>18.567868693488</v>
       </c>
       <c r="S11">
-        <v>0.05471347551771916</v>
+        <v>0.04236891854744051</v>
       </c>
       <c r="T11">
-        <v>0.05471347551771916</v>
+        <v>0.04236891854744051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I12">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J12">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>0.2668046917102223</v>
+        <v>0.1678698478408889</v>
       </c>
       <c r="R12">
-        <v>2.401242225392</v>
+        <v>1.510828630568</v>
       </c>
       <c r="S12">
-        <v>0.004488098175434461</v>
+        <v>0.003447470264054949</v>
       </c>
       <c r="T12">
-        <v>0.00448809817543446</v>
+        <v>0.003447470264054948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I13">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J13">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>0.2962367887146667</v>
+        <v>0.5949556119226667</v>
       </c>
       <c r="R13">
-        <v>2.666131098432</v>
+        <v>5.354600507304</v>
       </c>
       <c r="S13">
-        <v>0.004983194944603442</v>
+        <v>0.01221834538433658</v>
       </c>
       <c r="T13">
-        <v>0.004983194944603441</v>
+        <v>0.01221834538433658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H14">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I14">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J14">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>0.8631118813134442</v>
+        <v>0.3775739033639999</v>
       </c>
       <c r="R14">
-        <v>7.768006931820999</v>
+        <v>3.398165130275999</v>
       </c>
       <c r="S14">
-        <v>0.01451897579044805</v>
+        <v>0.007754071508805473</v>
       </c>
       <c r="T14">
-        <v>0.01451897579044805</v>
+        <v>0.007754071508805472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H15">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I15">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J15">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>7.62195267624822</v>
+        <v>3.257103782024</v>
       </c>
       <c r="R15">
-        <v>68.59757408623399</v>
+        <v>29.313934038216</v>
       </c>
       <c r="S15">
-        <v>0.1282139068853818</v>
+        <v>0.06688972784505974</v>
       </c>
       <c r="T15">
-        <v>0.1282139068853818</v>
+        <v>0.06688972784505974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H16">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I16">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J16">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>1.535787271055444</v>
+        <v>1.152510517476</v>
       </c>
       <c r="R16">
-        <v>13.822085439499</v>
+        <v>10.372594657284</v>
       </c>
       <c r="S16">
-        <v>0.025834493407506</v>
+        <v>0.02366860868173914</v>
       </c>
       <c r="T16">
-        <v>0.025834493407506</v>
+        <v>0.02366860868173914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H17">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I17">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J17">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>6.226303031551333</v>
+        <v>1.687678557528</v>
       </c>
       <c r="R17">
-        <v>56.03672728396199</v>
+        <v>15.189107017752</v>
       </c>
       <c r="S17">
-        <v>0.1047367611734428</v>
+        <v>0.03465912263097766</v>
       </c>
       <c r="T17">
-        <v>0.1047367611734428</v>
+        <v>0.03465912263097765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H18">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I18">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J18">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>0.5107381501757777</v>
+        <v>0.137322873508</v>
       </c>
       <c r="R18">
-        <v>4.596643351581999</v>
+        <v>1.235905861572</v>
       </c>
       <c r="S18">
-        <v>0.008591464210150753</v>
+        <v>0.002820140299657176</v>
       </c>
       <c r="T18">
-        <v>0.008591464210150751</v>
+        <v>0.002820140299657176</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H19">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I19">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J19">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>0.5670793437413333</v>
+        <v>0.4866926091239999</v>
       </c>
       <c r="R19">
-        <v>5.103714093671999</v>
+        <v>4.380233482116</v>
       </c>
       <c r="S19">
-        <v>0.009539216689398781</v>
+        <v>0.009994995046880738</v>
       </c>
       <c r="T19">
-        <v>0.009539216689398781</v>
+        <v>0.009994995046880738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H20">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I20">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J20">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>0.316648229081</v>
+        <v>0.04827273035666667</v>
       </c>
       <c r="R20">
-        <v>2.849834061729</v>
+        <v>0.4344545732099999</v>
       </c>
       <c r="S20">
-        <v>0.005326549282486024</v>
+        <v>0.0009913561286305967</v>
       </c>
       <c r="T20">
-        <v>0.005326549282486023</v>
+        <v>0.0009913561286305965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H21">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I21">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J21">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>2.796251412274</v>
+        <v>0.4164199146511111</v>
       </c>
       <c r="R21">
-        <v>25.166262710466</v>
+        <v>3.74777923186</v>
       </c>
       <c r="S21">
-        <v>0.04703759435802359</v>
+        <v>0.008551835196042454</v>
       </c>
       <c r="T21">
-        <v>0.04703759435802358</v>
+        <v>0.008551835196042452</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H22">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I22">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J22">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>0.5634313814390001</v>
+        <v>0.14734818521</v>
       </c>
       <c r="R22">
-        <v>5.070882432951</v>
+        <v>1.32613366689</v>
       </c>
       <c r="S22">
-        <v>0.009477851902864454</v>
+        <v>0.003026025778348299</v>
       </c>
       <c r="T22">
-        <v>0.009477851902864451</v>
+        <v>0.003026025778348298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H23">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I23">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J23">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>2.284232057682</v>
+        <v>0.2157692870466667</v>
       </c>
       <c r="R23">
-        <v>20.558088519138</v>
+        <v>1.94192358342</v>
       </c>
       <c r="S23">
-        <v>0.03842457816103952</v>
+        <v>0.004431160274206996</v>
       </c>
       <c r="T23">
-        <v>0.03842457816103952</v>
+        <v>0.004431160274206995</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H24">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I24">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J24">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>0.187373542502</v>
+        <v>0.01755669548555555</v>
       </c>
       <c r="R24">
-        <v>1.686361882518</v>
+        <v>0.15801025937</v>
       </c>
       <c r="S24">
-        <v>0.003151934281355435</v>
+        <v>0.000360554241276782</v>
       </c>
       <c r="T24">
-        <v>0.003151934281355434</v>
+        <v>0.0003605542412767819</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H25">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I25">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J25">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>0.208043329992</v>
+        <v>0.06222352995666667</v>
       </c>
       <c r="R25">
-        <v>1.872389969928</v>
+        <v>0.56001176961</v>
       </c>
       <c r="S25">
-        <v>0.003499634447067823</v>
+        <v>0.001277857649894709</v>
       </c>
       <c r="T25">
-        <v>0.003499634447067822</v>
+        <v>0.001277857649894708</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H26">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I26">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J26">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>0.6979808313336664</v>
+        <v>0.9257033043113334</v>
       </c>
       <c r="R26">
-        <v>6.281827482002998</v>
+        <v>8.331329738801999</v>
       </c>
       <c r="S26">
-        <v>0.01174119718628934</v>
+        <v>0.01901076730572577</v>
       </c>
       <c r="T26">
-        <v>0.01174119718628934</v>
+        <v>0.01901076730572577</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H27">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I27">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J27">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>6.163716408651331</v>
+        <v>7.985487626770222</v>
       </c>
       <c r="R27">
-        <v>55.47344767786198</v>
+        <v>71.869388640932</v>
       </c>
       <c r="S27">
-        <v>0.1036839501968308</v>
+        <v>0.1639944962800133</v>
       </c>
       <c r="T27">
-        <v>0.1036839501968308</v>
+        <v>0.1639944962800133</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H28">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I28">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J28">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>1.241959587639667</v>
+        <v>2.825626413202001</v>
       </c>
       <c r="R28">
-        <v>11.177636288757</v>
+        <v>25.430637718818</v>
       </c>
       <c r="S28">
-        <v>0.02089182361644115</v>
+        <v>0.05802866424275992</v>
       </c>
       <c r="T28">
-        <v>0.02089182361644114</v>
+        <v>0.05802866424275992</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H29">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I29">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J29">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>5.035083237973999</v>
+        <v>4.137705501889334</v>
       </c>
       <c r="R29">
-        <v>45.31574914176599</v>
+        <v>37.239349517004</v>
       </c>
       <c r="S29">
-        <v>0.08469846519061767</v>
+        <v>0.08497426347047377</v>
       </c>
       <c r="T29">
-        <v>0.08469846519061766</v>
+        <v>0.08497426347047375</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H30">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I30">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J30">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>0.4130234403806666</v>
+        <v>0.3366764403771111</v>
       </c>
       <c r="R30">
-        <v>3.717210963425999</v>
+        <v>3.030087963394</v>
       </c>
       <c r="S30">
-        <v>0.006947740451271502</v>
+        <v>0.006914178047674659</v>
       </c>
       <c r="T30">
-        <v>0.0069477404512715</v>
+        <v>0.006914178047674659</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H31">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I31">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J31">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>0.4585854051439999</v>
+        <v>1.193231185831333</v>
       </c>
       <c r="R31">
-        <v>4.127268646295999</v>
+        <v>10.739080672482</v>
       </c>
       <c r="S31">
-        <v>0.007714168393796661</v>
+        <v>0.02450487138819321</v>
       </c>
       <c r="T31">
-        <v>0.007714168393796661</v>
+        <v>0.02450487138819321</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H32">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I32">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J32">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>0.4586534731633333</v>
+        <v>0.4208228280923333</v>
       </c>
       <c r="R32">
-        <v>4.12788125847</v>
+        <v>3.787405452831</v>
       </c>
       <c r="S32">
-        <v>0.007715313410967903</v>
+        <v>0.008642255919948801</v>
       </c>
       <c r="T32">
-        <v>0.007715313410967901</v>
+        <v>0.008642255919948799</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H33">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I33">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J33">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>4.050268734486666</v>
+        <v>3.630186336316222</v>
       </c>
       <c r="R33">
-        <v>36.45241861038</v>
+        <v>32.67167702684601</v>
       </c>
       <c r="S33">
-        <v>0.0681322491023211</v>
+        <v>0.07455156246576652</v>
       </c>
       <c r="T33">
-        <v>0.0681322491023211</v>
+        <v>0.07455156246576652</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H34">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I34">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J34">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>0.8161099171033334</v>
+        <v>1.284523986031</v>
       </c>
       <c r="R34">
-        <v>7.34498925393</v>
+        <v>11.560715874279</v>
       </c>
       <c r="S34">
-        <v>0.0137283246648586</v>
+        <v>0.02637971203443583</v>
       </c>
       <c r="T34">
-        <v>0.0137283246648586</v>
+        <v>0.02637971203443582</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H35">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I35">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J35">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>3.30862727326</v>
+        <v>1.880992455151334</v>
       </c>
       <c r="R35">
-        <v>29.77764545934</v>
+        <v>16.928932096362</v>
       </c>
       <c r="S35">
-        <v>0.05565660758484318</v>
+        <v>0.03862912631095166</v>
       </c>
       <c r="T35">
-        <v>0.05565660758484316</v>
+        <v>0.03862912631095165</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H36">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I36">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J36">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>0.2714037791933334</v>
+        <v>0.1530524209341111</v>
       </c>
       <c r="R36">
-        <v>2.44263401274</v>
+        <v>1.377471788407</v>
       </c>
       <c r="S36">
-        <v>0.00456546246767874</v>
+        <v>0.00314317119362664</v>
       </c>
       <c r="T36">
-        <v>0.004565462467678739</v>
+        <v>0.00314317119362664</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H37">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I37">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J37">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>0.30134321656</v>
+        <v>0.5424404556523333</v>
       </c>
       <c r="R37">
-        <v>2.71208894904</v>
+        <v>4.881964100871</v>
       </c>
       <c r="S37">
-        <v>0.005069093544619515</v>
+        <v>0.01113986439455352</v>
       </c>
       <c r="T37">
-        <v>0.005069093544619515</v>
+        <v>0.01113986439455352</v>
       </c>
     </row>
   </sheetData>
